--- a/solver_input.xlsx
+++ b/solver_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\waljo\projetos\roteirizador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE72538-CDD4-40E1-8A43-8B1D187E13F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E339D2AB-22E4-4487-AC9C-BA79EC4EAF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>SOLVER DE DISTRIBUIÇÃO DE PAX</t>
   </si>
@@ -320,10 +320,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -335,9 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +537,7 @@
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8"/>
@@ -562,12 +562,12 @@
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -587,15 +587,15 @@
     </row>
     <row r="6" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -607,12 +607,12 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -622,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -635,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -648,23 +648,25 @@
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -674,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
@@ -687,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -700,12 +702,12 @@
         <v>14</v>
       </c>
       <c r="D15" s="5">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -717,19 +719,19 @@
       <c r="D16" s="5">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -747,73 +749,73 @@
     </row>
     <row r="20" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -825,14 +827,18 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,18 +939,18 @@
     </row>
     <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="8"/>
@@ -955,7 +961,7 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="8"/>
@@ -966,7 +972,7 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="8"/>
@@ -977,7 +983,7 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="8"/>
@@ -988,7 +994,7 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="8"/>
@@ -999,7 +1005,7 @@
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1008,7 +1014,7 @@
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="8"/>
@@ -1019,7 +1025,7 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="8"/>
@@ -1030,7 +1036,7 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="8"/>
@@ -1041,7 +1047,7 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="8"/>
@@ -1052,7 +1058,7 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="8"/>
@@ -1063,7 +1069,7 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="8"/>
@@ -1075,16 +1081,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="B18:E18"/>
@@ -1101,6 +1097,16 @@
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B48:H48"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" sqref="C4 C9:C16" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/solver_input.xlsx
+++ b/solver_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\waljo\projetos\roteirizador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E339D2AB-22E4-4487-AC9C-BA79EC4EAF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FC5279-CF0A-40B9-85B1-8B1380BB2ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>SOLVER DE DISTRIBUIÇÃO DE PAX</t>
   </si>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,13 +320,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -338,6 +335,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +547,7 @@
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -550,7 +560,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8"/>
@@ -562,12 +572,12 @@
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -587,15 +597,15 @@
     </row>
     <row r="6" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -607,12 +617,12 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -622,10 +632,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -635,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -648,25 +658,23 @@
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -676,62 +684,64 @@
         <v>3</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="19">
         <v>0.30555555555555558</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="D16" s="19">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -748,97 +758,93 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="16">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2</v>
+      </c>
+      <c r="D26" s="16">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>24</v>
-      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,18 +945,18 @@
     </row>
     <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="8"/>
@@ -961,7 +967,7 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="8"/>
@@ -972,7 +978,7 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="8"/>
@@ -983,7 +989,7 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="8"/>
@@ -994,7 +1000,7 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="8"/>
@@ -1005,7 +1011,7 @@
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1014,7 +1020,7 @@
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="8"/>
@@ -1025,7 +1031,7 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="8"/>
@@ -1036,7 +1042,7 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="8"/>
@@ -1047,7 +1053,7 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="8"/>
@@ -1058,7 +1064,7 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="8"/>
@@ -1069,7 +1075,7 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="8"/>
@@ -1081,6 +1087,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="B18:E18"/>
@@ -1097,16 +1113,6 @@
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B48:H48"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" sqref="C4 C9:C16" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/solver_input.xlsx
+++ b/solver_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\waljo\projetos\roteirizador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FC5279-CF0A-40B9-85B1-8B1380BB2ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A74F5D-28F9-43A7-9FED-4EB376F6FD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>SOLVER DE DISTRIBUIÇÃO DE PAX</t>
   </si>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,10 +320,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -335,19 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +537,7 @@
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -560,7 +550,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8"/>
@@ -572,12 +562,12 @@
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -597,15 +587,15 @@
     </row>
     <row r="6" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -617,12 +607,12 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -632,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -645,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -658,23 +648,25 @@
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -684,64 +676,62 @@
         <v>3</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D15" s="5">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.30555555555555558</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -758,93 +748,99 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="16">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
         <v>3</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="16">
-        <v>3</v>
-      </c>
-      <c r="D21" s="16">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="16">
-        <v>5</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2</v>
-      </c>
-      <c r="D26" s="16">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,18 +941,18 @@
     </row>
     <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="8"/>
@@ -967,7 +963,7 @@
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="8"/>
@@ -978,7 +974,7 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="8"/>
@@ -989,7 +985,7 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="8"/>
@@ -1000,7 +996,7 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="8"/>
@@ -1011,7 +1007,7 @@
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1020,7 +1016,7 @@
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="8"/>
@@ -1031,7 +1027,7 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="8"/>
@@ -1042,7 +1038,7 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="8"/>
@@ -1053,7 +1049,7 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="8"/>
@@ -1064,7 +1060,7 @@
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="8"/>
@@ -1075,7 +1071,7 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="8"/>
@@ -1087,16 +1083,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="B18:E18"/>
@@ -1113,6 +1099,16 @@
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B48:H48"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" sqref="C4 C9:C16" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/solver_input.xlsx
+++ b/solver_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\waljo\projetos\roteirizador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ka20\roteirizador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A74F5D-28F9-43A7-9FED-4EB376F6FD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7BF21E-F3F1-4774-8358-8AB0311BEA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solver Input" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>SOLVER DE DISTRIBUIÇÃO DE PAX</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>PRB1</t>
+  </si>
+  <si>
+    <t>PDO01</t>
   </si>
 </sst>
 </file>
@@ -320,13 +323,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -338,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,11 +539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -549,8 +552,8 @@
     <col min="6" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8"/>
@@ -560,16 +563,16 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="2" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -577,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -585,19 +588,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+    <row r="6" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -607,14 +610,14 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -622,12 +625,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -635,12 +638,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -648,12 +651,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -663,12 +666,12 @@
       <c r="D12" s="6">
         <v>0.2986111111111111</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
@@ -676,12 +679,12 @@
         <v>3</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -689,12 +692,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
@@ -704,12 +707,12 @@
       <c r="D15" s="5">
         <v>0.30555555555555558</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -719,21 +722,21 @@
       <c r="D16" s="5">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -747,212 +750,230 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
         <v>11</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>24</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="8"/>
@@ -962,8 +983,8 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="8"/>
@@ -973,8 +994,8 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="8"/>
@@ -984,8 +1005,8 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="8"/>
@@ -995,8 +1016,8 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="8"/>
@@ -1006,8 +1027,8 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -1015,8 +1036,8 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="8"/>
@@ -1026,8 +1047,8 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="8"/>
@@ -1037,8 +1058,8 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="8"/>
@@ -1048,8 +1069,8 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="8"/>
@@ -1059,8 +1080,8 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C56" s="8"/>
@@ -1070,8 +1091,8 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="8"/>
@@ -1083,6 +1104,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="B18:E18"/>
@@ -1099,16 +1130,6 @@
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B48:H48"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" sqref="C4 C9:C16" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1134,134 +1155,134 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
